--- a/Docs/Billing/Docs_Billing_YHG.xlsx
+++ b/Docs/Billing/Docs_Billing_YHG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\JobMarket\Docs\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C442A3E-90CD-403D-934F-BE0B7B0DFBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA12CB3C-7F05-417C-BECC-6125483EB99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
     <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
   <si>
     <t>YHGJ向け課金情報（YHGJに、GoogleドライブにSpreadSheetで提供）</t>
   </si>
@@ -183,6 +183,36 @@
   </si>
   <si>
     <t>ユーザ利用料 (Tk con)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Trình độ JP</t>
+  </si>
+  <si>
+    <t>Tokutei</t>
+  </si>
+  <si>
+    <t>K phân biệt</t>
+  </si>
+  <si>
+    <t>Nếu loại hình tuyển dụng của đơn là Tokutei thì ko quan tâm đến trình độ tiếng Nhật của ứng viên</t>
+  </si>
+  <si>
+    <t>Nếu loại hình tuyển dụng của đơn là Kỹ sư thì tính tiền theo trình độ tiếng Nhật của ứng viên</t>
   </si>
 </sst>
 </file>
@@ -361,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,22 +430,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,11 +452,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,9 +681,9 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -749,7 +780,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -757,7 +788,7 @@
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="21"/>
@@ -767,20 +798,20 @@
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="26"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -849,7 +880,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -884,9 +915,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="12">
-        <v>1</v>
-      </c>
+      <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -897,7 +926,7 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -916,7 +945,7 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -928,17 +957,19 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
@@ -970,10 +1001,10 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12">
-        <v>1</v>
-      </c>
+      <c r="P8" s="12">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
@@ -1012,7 +1043,9 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="12">
+        <v>25</v>
+      </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -1095,7 +1128,9 @@
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="V11" s="12">
+        <v>42</v>
+      </c>
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1">
@@ -1186,7 +1221,7 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1205,7 +1240,7 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="27" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1346,7 +1381,7 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1365,7 +1400,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="11" t="s">
@@ -1443,7 +1478,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1465,10 +1500,13 @@
         <f t="shared" ref="G21:G34" si="1">E21*F21</f>
         <v>0</v>
       </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1486,6 +1524,9 @@
       <c r="G22" s="9">
         <f t="shared" si="1"/>
         <v>10000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
@@ -1527,6 +1568,12 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="17"/>
@@ -1547,6 +1594,18 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
+      <c r="I25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="17"/>
@@ -1567,6 +1626,18 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
+      <c r="I26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="17"/>
@@ -1587,6 +1658,15 @@
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
+      <c r="I27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
@@ -1610,7 +1690,7 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1692,7 +1772,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -1747,7 +1827,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1772,7 +1852,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -1914,7 +1994,7 @@
     </row>
     <row r="44" spans="1:7" ht="18.75">
       <c r="A44" s="17"/>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -1996,7 +2076,7 @@
     </row>
     <row r="48" spans="1:7" ht="18.75">
       <c r="A48" s="17"/>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2051,7 +2131,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2078,7 +2158,7 @@
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="A52" s="17"/>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -2234,7 +2314,7 @@
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="A59" s="17"/>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -2324,7 +2404,7 @@
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="A63" s="17"/>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -2384,6 +2464,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:W4"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A51:A65"/>
     <mergeCell ref="A6:A20"/>
@@ -2398,16 +2486,8 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:W4"/>
-    <mergeCell ref="I7:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
